--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/folders-simple-taxonomy.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/folders-simple-taxonomy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7EAD34-5CA9-4139-AE54-495165FD1315}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA7FDF7-3551-40E9-832E-D65C26CD50D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="698" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="698" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="8" r:id="rId1"/>
@@ -25,9 +25,8 @@
     <sheet name="Lignt_Path" sheetId="24" r:id="rId10"/>
     <sheet name="Plane" sheetId="25" r:id="rId11"/>
     <sheet name="Binary_Data" sheetId="13" r:id="rId12"/>
-    <sheet name="Unit" sheetId="19" r:id="rId13"/>
-    <sheet name="size" sheetId="20" r:id="rId14"/>
-    <sheet name="time" sheetId="21" r:id="rId15"/>
+    <sheet name="size" sheetId="20" r:id="rId13"/>
+    <sheet name="time" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="227">
   <si>
     <t/>
   </si>
@@ -399,18 +398,6 @@
   </si>
   <si>
     <t>PATO:0000117</t>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>単位</t>
@@ -420,59 +407,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"micro-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000299</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -543,10 +477,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>UO:0000010</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO:0000165</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -890,13 +820,35 @@
   <si>
     <t>xsd:nonNegativeLong</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitTime:s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,13 +877,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -965,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,13 +926,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1311,18 +1250,18 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1338,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +1285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1362,7 +1301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1370,7 +1309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1378,39 +1317,39 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -1418,7 +1357,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1426,20 +1365,36 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1455,54 +1410,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1517,32 +1472,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1551,41 +1506,41 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1597,9 +1552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1611,9 +1566,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1637,16 +1592,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1663,7 +1618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1672,7 +1627,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1642,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1701,10 +1656,10 @@
         <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>72</v>
       </c>
@@ -1712,35 +1667,35 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1">
         <v>65536</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E6" s="1">
         <v>65536</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1">
         <v>65536</v>
@@ -1753,166 +1708,63 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D64F8E-7347-4EAC-A47F-6C625EA9F7A1}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C86E843-7441-4E2F-89CD-D08A0D59E1D6}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1923,18 +1775,18 @@
         <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>118</v>
+      <c r="D5" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1944,86 +1796,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4458AD-9BC8-4748-9663-EAFCD2BFB43D}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>138</v>
+      <c r="D5" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2039,17 +1891,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2066,7 +1918,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2077,7 +1929,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2092,7 +1944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2109,23 +1961,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>79</v>
@@ -2134,12 +1986,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>80</v>
@@ -2148,7 +2000,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
@@ -2156,34 +2008,34 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>83</v>
@@ -2192,7 +2044,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>93</v>
       </c>
@@ -2200,23 +2052,23 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>85</v>
@@ -2225,7 +2077,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2233,7 +2085,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>95</v>
       </c>
@@ -2241,7 +2093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>95</v>
       </c>
@@ -2249,23 +2101,23 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>87</v>
@@ -2283,18 +2135,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2311,10 +2163,10 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2326,7 +2178,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2341,10 +2193,10 @@
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2361,24 +2213,24 @@
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2393,32 +2245,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2427,20 +2279,20 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>101</v>
@@ -2458,14 +2310,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2473,26 +2325,26 @@
         <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2500,15 +2352,15 @@
         <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2523,30 +2375,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2554,35 +2406,35 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2597,26 +2449,26 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="15" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2627,16 +2479,16 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>28</v>
@@ -2645,7 +2497,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>27</v>
@@ -2663,22 +2515,22 @@
         <v>33</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2702,7 +2554,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2711,16 +2563,16 @@
         <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>62</v>
@@ -2729,7 +2581,7 @@
         <v>63</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>64</v>
@@ -2747,22 +2599,22 @@
         <v>68</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>69</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2782,7 +2634,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>105</v>
@@ -2809,13 +2661,13 @@
         <v>38</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>37</v>
@@ -2824,12 +2676,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -2840,17 +2692,17 @@
       <c r="F5">
         <v>8</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>134</v>
+      <c r="G5" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
@@ -2868,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="S5" s="1" t="b">
         <v>0</v>
@@ -2883,32 +2735,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2924,24 +2776,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>47</v>
@@ -2950,16 +2802,16 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2972,7 +2824,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2984,21 +2836,21 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>49</v>
@@ -3007,70 +2859,70 @@
         <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3088,71 +2940,71 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1">
         <v>-16776961</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1">
         <v>16711935</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1">
         <v>65535</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/folders-simple-taxonomy.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/folders-simple-taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA7FDF7-3551-40E9-832E-D65C26CD50D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074B07DA-EF19-425F-9416-DF513B40050D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="698" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="242">
   <si>
     <t/>
   </si>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[bindata:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-simple-taxonomy/image/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -371,18 +367,10 @@
     <t>folder:folder6</t>
   </si>
   <si>
-    <t>[pixels:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Imaging Environment</t>
   </si>
   <si>
     <t>:ImagingEnvironment</t>
-  </si>
-  <si>
-    <t>[imagingEnvironment:0]</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>imaging environment</t>
@@ -481,10 +469,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>///////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -493,10 +477,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -524,10 +504,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[lightPath:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -542,18 +518,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:0:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:0:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:0:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"Red"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -578,14 +542,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[lightPath:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[lightPath:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:samplesPerPixel</t>
   </si>
   <si>
@@ -625,18 +581,6 @@
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
-    <t>[plane:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>plane</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -684,10 +628,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-simple-taxonomy/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"red.png"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -766,10 +706,6 @@
     <t>xsd:string</t>
   </si>
   <si>
-    <t>[map:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>map</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -806,10 +742,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[imagingCondition:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>imaging condition</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -842,6 +774,134 @@
   </si>
   <si>
     <t>unitTime:s</t>
+  </si>
+  <si>
+    <t>imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingEnvironment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-simple-taxonomy/imagingCondition/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-simple-taxonomy/imagingEnvironment/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-simple-taxonomy/map/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-simple-taxonomy/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-simple-taxonomy/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-simple-taxonomy/lightPath/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-simple-taxonomy/plane/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/folders-simple-taxonomy/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingCondition:imagingCondition0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingEnvironment:imagingEnvironment0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>map:map1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plane:plane0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plane:plane1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plane:plane2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath:lightPath0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath:lightPath1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath:lightPath2</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1250,14 +1310,14 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1319,31 +1379,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>55</v>
@@ -1359,42 +1419,98 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1529,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -1422,7 +1538,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1442,22 +1558,22 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1591,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -1485,16 +1601,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1512,13 +1628,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1526,21 +1642,21 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1554,7 +1670,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1568,7 +1684,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1595,7 +1711,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1656,18 +1773,18 @@
         <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1">
         <v>65536</v>
@@ -1675,13 +1792,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1">
         <v>65536</v>
@@ -1689,13 +1806,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1">
         <v>65536</v>
@@ -1729,13 +1846,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1743,13 +1860,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1758,10 +1875,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1769,24 +1886,24 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1818,13 +1935,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1832,13 +1949,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1847,10 +1964,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1858,24 +1975,24 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>47</v>
@@ -1915,7 +2032,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1941,7 +2058,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1949,7 +2066,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>49</v>
@@ -1958,169 +2075,169 @@
         <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2140,9 +2257,8 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2163,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -2193,7 +2309,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -2213,7 +2329,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -2221,16 +2337,16 @@
         <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2247,9 +2363,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -2257,10 +2373,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2276,7 +2392,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -2284,18 +2400,18 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2313,8 +2429,9 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="39.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -2322,10 +2439,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2341,7 +2458,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -2349,18 +2466,18 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2378,9 +2495,8 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -2389,13 +2505,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2412,10 +2528,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2423,18 +2539,18 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2452,7 +2568,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
@@ -2461,9 +2577,9 @@
     <col min="8" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="15" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
@@ -2479,16 +2595,16 @@
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>28</v>
@@ -2497,7 +2613,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>27</v>
@@ -2515,19 +2631,19 @@
         <v>33</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
@@ -2563,16 +2679,16 @@
         <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>62</v>
@@ -2581,7 +2697,7 @@
         <v>63</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>64</v>
@@ -2599,19 +2715,19 @@
         <v>68</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>69</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -2634,16 +2750,16 @@
         <v>38</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>38</v>
@@ -2661,13 +2777,13 @@
         <v>38</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>37</v>
@@ -2678,10 +2794,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -2693,16 +2809,16 @@
         <v>8</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
@@ -2720,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="S5" s="1" t="b">
         <v>0</v>
@@ -2737,30 +2853,30 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2779,11 +2895,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -2793,7 +2909,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>47</v>
@@ -2802,13 +2918,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2836,13 +2952,13 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2850,7 +2966,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>49</v>
@@ -2859,10 +2975,10 @@
         <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>38</v>
@@ -2870,19 +2986,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2890,19 +3006,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2910,19 +3026,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2953,10 +3069,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2972,7 +3088,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -2980,7 +3096,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>49</v>
@@ -2988,7 +3104,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1">
         <v>-16776961</v>
@@ -2996,7 +3112,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1">
         <v>16711935</v>
@@ -3004,7 +3120,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1">
         <v>65535</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/folders-simple-taxonomy.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/folders-simple-taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074B07DA-EF19-425F-9416-DF513B40050D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816A2837-035F-4D68-A2E9-A3DCE01A5578}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="698" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
@@ -40,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="242">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -100,21 +97,12 @@
     <t>rdfs:label</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -148,27 +136,18 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -207,10 +186,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:float</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -225,58 +200,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dimensionOrder:xyczt</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -291,12 +214,6 @@
     <t>folder</t>
   </si>
   <si>
-    <t>:folder</t>
-  </si>
-  <si>
-    <t>:Folder</t>
-  </si>
-  <si>
     <t>"Absense"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -370,18 +287,7 @@
     <t>Imaging Environment</t>
   </si>
   <si>
-    <t>:ImagingEnvironment</t>
-  </si>
-  <si>
     <t>imaging environment</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:imagingEnvironment</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:ImagingEnvironment</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -437,13 +343,7 @@
     <t>significant bits</t>
   </si>
   <si>
-    <t>:significantBits</t>
-  </si>
-  <si>
     <t>time increment</t>
-  </si>
-  <si>
-    <t>:timeIncrement</t>
   </si>
   <si>
     <t>[time:0.0s]</t>
@@ -487,37 +387,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:lightPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
-    <t>:LightPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
     <t>channel</t>
   </si>
   <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"Red"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -542,15 +417,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:samplesPerPixel</t>
-  </si>
-  <si>
     <t>samples per pixel</t>
   </si>
   <si>
-    <t>:LightPath</t>
-  </si>
-  <si>
     <t>Lignt Path</t>
   </si>
   <si>
@@ -566,18 +435,6 @@
     <t>the z</t>
   </si>
   <si>
-    <t>:theC</t>
-  </si>
-  <si>
-    <t>:theT</t>
-  </si>
-  <si>
-    <t>:theZ</t>
-  </si>
-  <si>
-    <t>:Plane</t>
-  </si>
-  <si>
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
@@ -585,14 +442,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:plane</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Plane</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -636,10 +485,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel:0:0</t>
   </si>
   <si>
@@ -694,15 +539,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>:key</t>
-  </si>
-  <si>
-    <t>:value</t>
-  </si>
-  <si>
-    <t>:Map</t>
-  </si>
-  <si>
     <t>xsd:string</t>
   </si>
   <si>
@@ -710,46 +546,22 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:map</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Map</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>physical size z</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:physicalSizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>interleaved</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:interleaved</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Imaging Condition</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ImagingCondition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>imaging condition</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:imagingCondition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:nonNegativeLong</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -901,6 +713,218 @@
   </si>
   <si>
     <t>lightPath:lightPath2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Folder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:folder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ImagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:imagingEnvironment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ImagingEnvironment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ImagingEnvironment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:map</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Map</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Map</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:key</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:significantBits</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:timeIncrement</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:interleaved</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:samplesPerPixel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1323,194 +1347,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1535,45 +1559,45 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1598,24 +1622,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1624,39 +1648,39 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1670,7 +1694,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1684,7 +1708,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1712,7 +1736,7 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1720,24 +1744,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1746,45 +1770,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1">
         <v>65536</v>
@@ -1792,13 +1816,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1">
         <v>65536</v>
@@ -1806,13 +1830,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1">
         <v>65536</v>
@@ -1843,67 +1867,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1932,67 +1956,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2011,233 +2035,233 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2257,96 +2281,97 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2370,48 +2395,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2436,48 +2461,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2496,27 +2521,28 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2524,33 +2550,33 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2572,83 +2598,84 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2672,153 +2699,153 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
@@ -2836,13 +2863,13 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="S5" s="1" t="b">
         <v>0</v>
@@ -2853,30 +2880,30 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2897,44 +2924,44 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2942,63 +2969,63 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3006,19 +3033,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3026,19 +3053,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3066,45 +3093,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1">
         <v>-16776961</v>
@@ -3112,7 +3139,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1">
         <v>16711935</v>
@@ -3120,7 +3147,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1">
         <v>65535</v>
